--- a/output/2020/sector_totals_2020.xlsx
+++ b/output/2020/sector_totals_2020.xlsx
@@ -509,7 +509,7 @@
         <v>408.3942545705854</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>82.30460461846388</v>
       </c>
       <c r="G3" t="n">
         <v>4.458148208577082</v>
@@ -834,7 +834,7 @@
         <v>7170.920611606466</v>
       </c>
       <c r="F16" t="n">
-        <v>4239.894935513511</v>
+        <v>4322.199540131975</v>
       </c>
       <c r="G16" t="n">
         <v>40.08918433887719</v>

--- a/output/2020/sector_totals_2020.xlsx
+++ b/output/2020/sector_totals_2020.xlsx
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>94.41249001862033</v>
       </c>
       <c r="C9" t="n">
         <v>94.41249001862033</v>
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>46.94126537280198</v>
       </c>
       <c r="C10" t="n">
         <v>46.94126537280198</v>
@@ -697,7 +697,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>329.2200721866216</v>
       </c>
       <c r="C11" t="n">
         <v>329.2200721866216</v>
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5974.852711100203</v>
+        <v>6445.426538678247</v>
       </c>
       <c r="C16" t="n">
         <v>541.6262477730177</v>
